--- a/democratic_primary/analysis/results.xlsx
+++ b/democratic_primary/analysis/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA815A4E-CA53-8A40-83EE-CC4529AF74E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5FB56-A8BD-B14E-8D3B-5EF0A2F51E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="460" windowWidth="17500" windowHeight="16540"/>
+    <workbookView xWindow="9960" yWindow="460" windowWidth="18840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -992,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1932,7 +1932,7 @@
         <v>43900</v>
       </c>
       <c r="C20" s="4">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>37.5</v>
+        <v>36.4</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="S20">
         <f>C20-G20</f>
-        <v>15.299999999999997</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1974,7 +1974,7 @@
         <v>43900</v>
       </c>
       <c r="C21" s="4">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>32.700000000000003</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="S21">
         <f>C21-G21</f>
-        <v>-0.20000000000000284</v>
+        <v>-0.19999999999999574</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2016,7 +2016,7 @@
         <v>43900</v>
       </c>
       <c r="C22">
-        <v>60.3</v>
+        <v>60.4</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>34.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -2046,8 +2046,8 @@
         <v>2</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S21:S25" si="0">C22-G22</f>
-        <v>25.799999999999997</v>
+        <f t="shared" ref="S22:S25" si="0">C22-G22</f>
+        <v>25.699999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2058,7 +2058,7 @@
         <v>43900</v>
       </c>
       <c r="C23">
-        <v>79.8</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>16.3</v>
+        <v>14.9</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="0"/>
-        <v>63.5</v>
+        <v>66.199999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2100,7 +2100,7 @@
         <v>43900</v>
       </c>
       <c r="C24">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>6.3000000000000043</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2142,7 +2142,7 @@
         <v>43900</v>
       </c>
       <c r="C25">
-        <v>39.299999999999997</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>47.5</v>
+        <v>53.3</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>-8.2000000000000028</v>
+        <v>-13.5</v>
       </c>
     </row>
   </sheetData>

--- a/democratic_primary/analysis/results.xlsx
+++ b/democratic_primary/analysis/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5FB56-A8BD-B14E-8D3B-5EF0A2F51E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B536502-EAE0-1343-8FCE-A7ACBADEA2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="460" windowWidth="18840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="460" windowWidth="18780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1357,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1791,10 +1791,10 @@
         <v>43893</v>
       </c>
       <c r="C17">
-        <v>17.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1961,6 +1961,9 @@
       <c r="Q20">
         <v>2</v>
       </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
       <c r="S20">
         <f>C20-G20</f>
         <v>16.5</v>
@@ -2003,6 +2006,9 @@
       <c r="Q21">
         <v>2</v>
       </c>
+      <c r="R21" s="4">
+        <v>0.67</v>
+      </c>
       <c r="S21">
         <f>C21-G21</f>
         <v>-0.19999999999999574</v>
@@ -2045,6 +2051,9 @@
       <c r="Q22">
         <v>2</v>
       </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
       <c r="S22">
         <f t="shared" ref="S22:S25" si="0">C22-G22</f>
         <v>25.699999999999996</v>
@@ -2087,6 +2096,9 @@
       <c r="Q23">
         <v>2</v>
       </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
       <c r="S23">
         <f t="shared" si="0"/>
         <v>66.199999999999989</v>
@@ -2129,6 +2141,9 @@
       <c r="Q24">
         <v>2</v>
       </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
       <c r="S24">
         <f t="shared" si="0"/>
         <v>6.3000000000000043</v>
@@ -2162,18 +2177,11 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
       <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>-13.5</v>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/democratic_primary/analysis/results.xlsx
+++ b/democratic_primary/analysis/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B536502-EAE0-1343-8FCE-A7ACBADEA2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA21694-7C72-9048-AC85-9CDD93F5F0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="460" windowWidth="18780" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14240" yWindow="460" windowWidth="14560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22:S25" si="0">C22-G22</f>
+        <f t="shared" ref="S22:S24" si="0">C22-G22</f>
         <v>25.699999999999996</v>
       </c>
     </row>

--- a/democratic_primary/analysis/results.xlsx
+++ b/democratic_primary/analysis/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA21694-7C72-9048-AC85-9CDD93F5F0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A40AAD-7E1B-5746-B044-A26836524CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="460" windowWidth="14560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1977,7 +1977,7 @@
         <v>43900</v>
       </c>
       <c r="C21" s="4">
-        <v>32.1</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>32.299999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -2007,11 +2007,11 @@
         <v>2</v>
       </c>
       <c r="R21" s="4">
-        <v>0.67</v>
+        <v>0.94</v>
       </c>
       <c r="S21">
         <f>C21-G21</f>
-        <v>-0.19999999999999574</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19">
